--- a/medicine/Enfance/Langelot_mauvais_esprit/Langelot_mauvais_esprit.xlsx
+++ b/medicine/Enfance/Langelot_mauvais_esprit/Langelot_mauvais_esprit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot mauvais esprit est le trente-quatrième roman de la série Langelot, écrite par le Lieutenant X (Vladimir Volkoff). Ce roman a été publié pour la première fois en 1980 chez Hachette, dans la collection Bibliothèque verte.
@@ -512,7 +524,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Langelot : orphelin, agent du Service National d'Information Fonctionnelle, blond, 1,68 m, mince, « traits menus mais durs »
 Capitaine Montferrand : chef du service "Protection" du SNIF et supérieur de Langelot
@@ -549,7 +563,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman commence par l'interrogatoire, par les agents du SNIF, d'un prisonnier déjà présenté dans des aventures précédentes (notamment dans Langelot et les Cosmonautes) : Sidney la Gélatine, membre de l'organisation internationale d'espionnage dite « SPHINX ». Au cours de l'audition, le prisonnier évoque un site africain dans lequel un de ses collègues du SPHINX mais aussi concurrent, Félix Sousse, entreprendrait de construire des missiles balistiques, sous le couvert d'une société commerciale appelée ENGINEX.
 Le directeur du SNIF décide alors d'envoyer un agent en mission, Delphine Ixe (dite Corinne), qui prendra la place de Fabienne Davart, coiffeuse qui avait été recrutée pour deux ans sur le site ENGINEX. L'opération a lieu : Fabienne Davart est interpellée alors qu'elle s'apprête à se rendre à l'aéroport et est remplacée par Corinne, qui va infiltrer ENGINEX.
@@ -586,7 +602,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1980 - Hachette, Bibliothèque verte (français, version originale), illustrations de Robert Bressy.</t>
         </is>
@@ -616,7 +634,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La dernière fois que Langelot avait croisé Sidney-la-Gélatine, c'était dans Langelot en permission (1979).
 Un Musée de l'holographie ouvre à Paris, en mars 1980.
